--- a/biology/Botanique/Plancher_cloué/Plancher_cloué.xlsx
+++ b/biology/Botanique/Plancher_cloué/Plancher_cloué.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Plancher_clou%C3%A9</t>
+          <t>Plancher_cloué</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un plancher cloué, est un plancher en bois constitué de planches posées sur champ et clouées les unes contre les autres. Ce type de plancher est autoportant, il est isolant phonique et résistant au feu car il est très épais (au minimum de 16 cm d'épaisseur) et ne renferme pas d'air.
 Le plancher cloué présente un bon aspect esthétique sur l'une ou ses 2 faces et peut être gardé apparent.
